--- a/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
+++ b/InputData/elec/SoCtMbCtBDP/Shr of Costs that Must be Covered to be Deemed Profitable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoCtMbCtBDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NY\elec\SoCtMbCtbDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59481EF6-97A0-49B9-97FC-8B00E4292FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A48DBD14-0F31-4BBA-A4A0-BAA4C7EAC477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="6330" windowWidth="21840" windowHeight="9120" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SoCtMbCtbDP Share of Costs that Must be Covered to be Deemed Profitable</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,18 +497,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,7 +534,7 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
@@ -546,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -562,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +660,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -714,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
